--- a/xhs_DBMS/reference/reference.xlsx
+++ b/xhs_DBMS/reference/reference.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\Qt\xhs_DBMS\xhs_DBMS\reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F81910-C260-42EF-A5EF-06BDCF223C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893166E6-69F7-4716-9959-553ADA44270E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>翻页功能</t>
   </si>
@@ -61,6 +61,17 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1Kx421C7k7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5加密</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/rong11417/article/details/87804471</t>
+  </si>
+  <si>
+    <t>Qt如何进行MD5加密</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +165,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -162,21 +173,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -447,22 +461,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="27.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="25.453125" defaultRowHeight="28" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="130.375" customWidth="1"/>
-    <col min="4" max="16383" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="20.90625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+    <col min="3" max="3" width="130.36328125" customWidth="1"/>
+    <col min="4" max="16383" width="25.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -472,8 +486,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -481,15 +495,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -513,7 +538,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -527,7 +552,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
